--- a/Señas_lsm.xlsx
+++ b/Señas_lsm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t xml:space="preserve">Seña</t>
   </si>
@@ -28,18 +28,27 @@
     <t xml:space="preserve">Configuracion</t>
   </si>
   <si>
+    <t xml:space="preserve">Simetria</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abril</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
+    <t xml:space="preserve">Singular</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agosto</t>
   </si>
   <si>
     <t xml:space="preserve">Arroz</t>
   </si>
   <si>
+    <t xml:space="preserve">Asimetrico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Azucar</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simetrico</t>
   </si>
   <si>
     <t xml:space="preserve">Cuñado</t>
@@ -85,6 +97,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -144,9 +157,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -166,116 +183,155 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>13</v>
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>13</v>
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>13</v>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Señas_lsm.xlsx
+++ b/Señas_lsm.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Abril</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Singular</t>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Bien</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">Bueno</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Naranja</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">Café</t>
@@ -186,10 +186,10 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -339,8 +339,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>